--- a/data/3.7_4.xlsx
+++ b/data/3.7_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/3.7.4Bei-WebATFarme/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF5EA8A-5D71-E740-BCC4-3279D89FF710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9983D0FB-359F-0D4C-B3CF-CDA70CDD5590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2780" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>编号</t>
   </si>
@@ -197,13 +197,49 @@
   </si>
   <si>
     <t>注册A</t>
+  </si>
+  <si>
+    <t>断言text</t>
+  </si>
+  <si>
+    <t>assert_text</t>
+  </si>
+  <si>
+    <t>断言用户名</t>
+  </si>
+  <si>
+    <t>断言元素存在</t>
+  </si>
+  <si>
+    <t>assert_element_exist</t>
+  </si>
+  <si>
+    <t>//a[.='新浪']</t>
+  </si>
+  <si>
+    <t>新浪</t>
+  </si>
+  <si>
+    <t>制造弹出框</t>
+  </si>
+  <si>
+    <t>断言弹出框文本</t>
+  </si>
+  <si>
+    <t>assert_alert_text</t>
+  </si>
+  <si>
+    <t>我被点击</t>
+  </si>
+  <si>
+    <t>//input[@id='alerta']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +253,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +357,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -598,8 +641,9 @@
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
@@ -758,132 +802,124 @@
       <c r="K5" s="1"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
         <v>5</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="1"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="1">
-        <v>123456</v>
+        <v>63</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="4"/>
@@ -893,59 +929,77 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
+      <c r="E13" s="1">
         <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="4"/>
@@ -957,18 +1011,20 @@
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="J14" s="1">
+        <v>123456</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="4"/>
     </row>
@@ -977,39 +1033,123 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
         <v>5</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="5"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="L8:L15"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="L3:L11"/>
+    <mergeCell ref="L12:L19"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="D12:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{0F583B90-C579-FF4E-9D96-B993E6B86B4D}"/>
-    <hyperlink ref="J8" r:id="rId2" xr:uid="{2E2D2188-DE49-1F4B-957F-3E714453F397}"/>
+    <hyperlink ref="J12" r:id="rId2" xr:uid="{2E2D2188-DE49-1F4B-957F-3E714453F397}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
